--- a/biology/Zoologie/Indirana_gundia/Indirana_gundia.xlsx
+++ b/biology/Zoologie/Indirana_gundia/Indirana_gundia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indirana gundia est une espèce d'amphibiens de la famille des Ranixalidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indirana gundia est une espèce d'amphibiens de la famille des Ranixalidae.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Inde. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Inde. Elle se rencontre :
 dans l'État du Karnataka dans une zone de taille réduite (inférieure à 100 km2) dans un lieu nommé « Gundia, forêt de Kempholey », à une altitude de 200 m dans les Ghâts occidentaux ;
 dans le Nord du Kerala.
-Cette espèce est terrestre, elle vit dans la forêt tropicale humide[2].
+Cette espèce est terrestre, elle vit dans la forêt tropicale humide.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, gundia, lui a été donné en référence au lieu de sa découverte, un lieu nommé « Gundia, forêt de Kempholey ».
 </t>
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dubois, 1986 "1985" : Diagnose préliminaire d’un nouveau genre de Ranoidea (Amphibiens, Anoures) du sud de l’Inde. Alytes, vol. 4, no 3, p. 113-118.</t>
         </is>
